--- a/Tables/Table 1 end member description.xlsx
+++ b/Tables/Table 1 end member description.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pre Dec2015" sheetId="1" r:id="rId1"/>
+    <sheet name="Rev Dec2015" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Tide/Calm</t>
   </si>
@@ -108,6 +109,33 @@
   </si>
   <si>
     <t>Drifters Speed range (cm s-1)</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t>1-36</t>
+  </si>
+  <si>
+    <t>Drifters Speed range (mean in grid cells) (cm s-1)</t>
+  </si>
+  <si>
+    <t>Drifters (individual) Mean Speed (cm s-1)</t>
+  </si>
+  <si>
+    <t>Drifters (individual) Standard Deviation (cm s-1)</t>
+  </si>
+  <si>
+    <t>14.9, 6.8, 0.4</t>
+  </si>
+  <si>
+    <t>12.5, 3.7, 0.7</t>
+  </si>
+  <si>
+    <t>21.5, 11, 1.2</t>
   </si>
 </sst>
 </file>
@@ -115,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -154,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -163,10 +191,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:D9"/>
     </sheetView>
   </sheetViews>
@@ -629,4 +660,182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1314</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1580</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>